--- a/project/app/planilhas/ModeloFUNDEP.xlsx
+++ b/project/app/planilhas/ModeloFUNDEP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11070" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Relação de despesas" sheetId="28" r:id="rId1"/>
@@ -15,9 +15,9 @@
   <definedNames>
     <definedName name="\s" localSheetId="0">#REF!</definedName>
     <definedName name="\s">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relação de despesas'!$A$6:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Relação de despesas'!$C$6:$J$7</definedName>
     <definedName name="ANEXO">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Relação de despesas'!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Relação de despesas'!$A$1:$J$6</definedName>
     <definedName name="Área_impressão_IM" localSheetId="0">#REF!</definedName>
     <definedName name="Área_impressão_IM">#REF!</definedName>
     <definedName name="Área_impressão_IN" localSheetId="0">'[1]Anexo III'!$A$6:$J$60</definedName>
@@ -25,7 +25,7 @@
     <definedName name="dddd">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Relação de despesas'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Rota 2030 - Fundep - Anexo III – Relação de Despesas</t>
   </si>
@@ -73,25 +73,13 @@
     <t>1 - Gestora</t>
   </si>
   <si>
-    <t>Nome da Instituição Gestora</t>
-  </si>
-  <si>
     <t>Ref. Fundep:</t>
-  </si>
-  <si>
-    <t>2719X*XX</t>
   </si>
   <si>
     <t>Nº Acordo de Parceria:</t>
   </si>
   <si>
-    <t>Nº Acordo</t>
-  </si>
-  <si>
     <t>2 - Título do Projeto</t>
-  </si>
-  <si>
-    <t>Título do Projeto</t>
   </si>
   <si>
     <t>PARCIAL</t>
@@ -103,13 +91,7 @@
     <t>3 - Coordenador</t>
   </si>
   <si>
-    <t>Nome do Coordenador</t>
-  </si>
-  <si>
     <t>Período da Prestação de Contas:</t>
-  </si>
-  <si>
-    <t>____/_____/____  à  ___/____/____</t>
   </si>
   <si>
     <t>REC.</t>
@@ -139,25 +121,28 @@
     <t>VALOR</t>
   </si>
   <si>
-    <t>TOTAL DE DESPESAS NESTA</t>
-  </si>
-  <si>
-    <t>TOTAL DE DESPESAS ACUMULADAS</t>
+    <t>6ª</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="000000000000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00;[Red]\(#,##0.00\);0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="000000000000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -300,39 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -340,21 +292,54 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,199 +780,168 @@
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="34" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="34" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="35" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="35" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="34" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="35" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="34" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1094,7 +1054,7 @@
         </row>
         <row r="11">
           <cell r="F11" t="str">
-            <v xml:space="preserve"> </v>
+            <v/>
           </cell>
           <cell r="H11" t="str">
             <v>Físico</v>
@@ -1802,25 +1762,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13" style="8" customWidth="1"/>
-    <col min="10" max="10" width="13" style="24" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="1" customWidth="1"/>
-    <col min="12" max="256" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="4" style="1" customWidth="1"/>
     <col min="258" max="258" width="6.140625" style="1" customWidth="1"/>
     <col min="259" max="259" width="64.85546875" style="1" customWidth="1"/>
@@ -2579,645 +2542,130 @@
     <col min="16140" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
+    <row r="2" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+    </row>
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="49" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="50"/>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="38" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="6" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="25" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="38" t="s">
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39" t="s">
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41" t="s">
+      <c r="F6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="G6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="H6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
-        <v>1</v>
-      </c>
-      <c r="B7" s="21">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="22"/>
+    <row r="7" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="7"/>
+      <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
-        <v>1</v>
-      </c>
-      <c r="B8" s="21">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <v>1</v>
-      </c>
-      <c r="B10" s="21">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
-        <v>1</v>
-      </c>
-      <c r="B11" s="21">
-        <v>5</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>1</v>
-      </c>
-      <c r="B12" s="21">
-        <v>6</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
-        <v>1</v>
-      </c>
-      <c r="B13" s="21">
-        <v>7</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
-        <v>1</v>
-      </c>
-      <c r="B14" s="21">
-        <v>8</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>1</v>
-      </c>
-      <c r="B15" s="21">
-        <v>9</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
-        <v>1</v>
-      </c>
-      <c r="B16" s="21">
-        <v>10</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>1</v>
-      </c>
-      <c r="B17" s="21">
-        <v>11</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
-        <v>1</v>
-      </c>
-      <c r="B18" s="21">
-        <v>12</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
-        <v>1</v>
-      </c>
-      <c r="B19" s="21">
-        <v>13</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
-        <v>1</v>
-      </c>
-      <c r="B20" s="21">
-        <v>14</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="21">
-        <v>15</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21">
-        <v>1</v>
-      </c>
-      <c r="B22" s="21">
-        <v>16</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
-        <v>1</v>
-      </c>
-      <c r="B23" s="21">
-        <v>17</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
-        <v>1</v>
-      </c>
-      <c r="B24" s="21">
-        <v>18</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <v>1</v>
-      </c>
-      <c r="B25" s="21">
-        <v>19</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <v>1</v>
-      </c>
-      <c r="B26" s="21">
-        <v>20</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
-        <v>1</v>
-      </c>
-      <c r="B27" s="21">
-        <v>21</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
-        <v>1</v>
-      </c>
-      <c r="B28" s="21">
-        <v>22</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
-        <v>1</v>
-      </c>
-      <c r="B29" s="21">
-        <v>23</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
-        <v>1</v>
-      </c>
-      <c r="B30" s="21">
-        <v>24</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21">
-        <v>1</v>
-      </c>
-      <c r="B31" s="21">
-        <v>25</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
-        <v>1</v>
-      </c>
-      <c r="B32" s="21">
-        <v>26</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="22"/>
-    </row>
-    <row r="33" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
-        <v>1</v>
-      </c>
-      <c r="B33" s="21">
-        <v>27</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
-        <v>1</v>
-      </c>
-      <c r="B34" s="21">
-        <v>28</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21">
-        <v>1</v>
-      </c>
-      <c r="B35" s="21">
-        <v>29</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="1:10" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
-        <v>1</v>
-      </c>
-      <c r="B36" s="21">
-        <v>30</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C41" s="26"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <autoFilter ref="C6:J7"/>
+  <mergeCells count="12">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A38:I38"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -3230,8 +2678,8 @@
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0.78740157480314965" header="0.27559055118110237" footer="0"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="77" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0.27559055118110237" footer="0"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="77" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L
 Analista de Projetos&amp;R
